--- a/classification/droptc/sentence/neo-bert/freeze/87212562/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/87212562/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.724372923374176</v>
+        <v>0.7176494002342224</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5479755401611328</v>
+        <v>0.9981892704963684</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.564656138420105</v>
+        <v>0.5372473001480103</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7010892033576965</v>
+        <v>0.7490034103393555</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7364176511764526</v>
+        <v>0.9991706609725952</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8838183283805847</v>
+        <v>0.9971016049385071</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8247411251068115</v>
+        <v>0.9871439337730408</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3047972023487091</v>
+        <v>0.976646363735199</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.643220841884613</v>
+        <v>0.9871439337730408</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.842642605304718</v>
+        <v>0.9824918508529663</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5208762288093567</v>
+        <v>0.9874027967453003</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.851811408996582</v>
+        <v>0.9918386340141296</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5774444937705994</v>
+        <v>0.9555118680000305</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8884135484695435</v>
+        <v>0.8036527633666992</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3580667674541473</v>
+        <v>0.8358809947967529</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9396287202835083</v>
+        <v>0.9357221722602844</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9306249022483826</v>
+        <v>0.6820704936981201</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9086193442344666</v>
+        <v>0.9950401186943054</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9726614952087402</v>
+        <v>0.8681931495666504</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6116025447845459</v>
+        <v>0.9974410533905029</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9202753305435181</v>
+        <v>0.9859755635261536</v>
       </c>
     </row>
     <row r="23">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4638783037662506</v>
+        <v>0.9838812351226807</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7423975467681885</v>
+        <v>0.9953792095184326</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7667295932769775</v>
+        <v>0.5052474737167358</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3467589914798737</v>
+        <v>0.5607100129127502</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6767413020133972</v>
+        <v>0.9985550045967102</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9184677004814148</v>
+        <v>0.9981892704963684</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8049178719520569</v>
+        <v>0.9913231134414673</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9283021688461304</v>
+        <v>0.9501370787620544</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4254888594150543</v>
+        <v>0.9767652153968811</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8290252685546875</v>
+        <v>0.7152042984962463</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9592940211296082</v>
+        <v>0.9617118835449219</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9613770842552185</v>
+        <v>0.9532495141029358</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8075225353240967</v>
+        <v>0.9978194236755371</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.357714056968689</v>
+        <v>0.9957049489021301</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9008899331092834</v>
+        <v>0.9511147737503052</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.804230272769928</v>
+        <v>0.9967674016952515</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4605072736740112</v>
+        <v>0.9632837176322937</v>
       </c>
     </row>
     <row r="40">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8825289607048035</v>
+        <v>0.644680380821228</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.564656138420105</v>
+        <v>0.9844488501548767</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5175785422325134</v>
+        <v>0.93023282289505</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9396287202835083</v>
+        <v>0.9977203011512756</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3047972023487091</v>
+        <v>0.5588558316230774</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9331029057502747</v>
+        <v>0.9649260640144348</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4264956414699554</v>
+        <v>0.9394457340240479</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7565521001815796</v>
+        <v>0.8455846309661865</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.487098753452301</v>
+        <v>0.9973418116569519</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8368661403656006</v>
+        <v>0.9983048439025879</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6815632581710815</v>
+        <v>0.9991030693054199</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9630889892578125</v>
+        <v>0.4782128632068634</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6108542084693909</v>
+        <v>0.6620854139328003</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8573175668716431</v>
+        <v>0.9991030693054199</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5774309039115906</v>
+        <v>0.8892828822135925</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9008333683013916</v>
+        <v>0.9994372725486755</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9592004418373108</v>
+        <v>0.998461127281189</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9173850417137146</v>
+        <v>0.9806997179985046</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8059320449829102</v>
+        <v>0.9670894145965576</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7423975467681885</v>
+        <v>0.995618999004364</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7592610120773315</v>
+        <v>0.9691164493560791</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8501265048980713</v>
+        <v>0.9671293497085571</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3780487775802612</v>
+        <v>0.9945514798164368</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9390057921409607</v>
+        <v>0.8903368711471558</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7027085423469543</v>
+        <v>0.7260617613792419</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8185596466064453</v>
+        <v>0.9966909885406494</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9361488819122314</v>
+        <v>0.9966909885406494</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4793646931648254</v>
+        <v>0.8268805146217346</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7534978985786438</v>
+        <v>0.9966909885406494</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8788783550262451</v>
+        <v>0.9205673336982727</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9163084626197815</v>
+        <v>0.9425134062767029</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4326514601707458</v>
+        <v>0.9561842083930969</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9036511182785034</v>
+        <v>0.9965452551841736</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4250708222389221</v>
+        <v>0.9833683371543884</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9322566986083984</v>
+        <v>0.6590617299079895</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8581536412239075</v>
+        <v>0.8495896458625793</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5202771425247192</v>
+        <v>0.9833683371543884</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4675707221031189</v>
+        <v>0.9576599597930908</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3955797851085663</v>
+        <v>0.9833683371543884</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7172471880912781</v>
+        <v>0.9991241097450256</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7784066796302795</v>
+        <v>0.9791951179504395</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9592940211296082</v>
+        <v>0.8241580128669739</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6298314332962036</v>
+        <v>0.9791951179504395</v>
       </c>
     </row>
     <row r="83">
@@ -2751,14 +2751,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8040649890899658</v>
+        <v>0.380087822675705</v>
       </c>
     </row>
     <row r="84">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9026382565498352</v>
+        <v>0.380087822675705</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8714507818222046</v>
+        <v>0.9998061060905457</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4189072251319885</v>
+        <v>0.9958046078681946</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7417643666267395</v>
+        <v>0.8631122708320618</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.87176114320755</v>
+        <v>0.9797967076301575</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8866230249404907</v>
+        <v>0.9192924499511719</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.541606068611145</v>
+        <v>0.9974104762077332</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9396287202835083</v>
+        <v>0.9970700740814209</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7434103488922119</v>
+        <v>0.996435284614563</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6240629553794861</v>
+        <v>0.9965295195579529</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.693238377571106</v>
+        <v>0.9964196681976318</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9017964601516724</v>
+        <v>0.9967175126075745</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6253306269645691</v>
+        <v>0.6685296893119812</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4818030297756195</v>
+        <v>0.8992133140563965</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8884135484695435</v>
+        <v>0.9977132081985474</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4065719842910767</v>
+        <v>0.523255467414856</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2716212868690491</v>
+        <v>0.9884434342384338</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7050638794898987</v>
+        <v>0.8785783648490906</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8698281645774841</v>
+        <v>0.8293218016624451</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5234548449516296</v>
+        <v>0.5175582766532898</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9090141654014587</v>
+        <v>0.7265552282333374</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5218071341514587</v>
+        <v>0.9941301941871643</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4824675321578979</v>
+        <v>0.9183599948883057</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7183748483657837</v>
+        <v>0.8868427276611328</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8202645778656006</v>
+        <v>0.9718807339668274</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8755195140838623</v>
+        <v>0.8700461983680725</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5759702920913696</v>
+        <v>0.9981892704963684</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8260113000869751</v>
+        <v>0.942202091217041</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5598229169845581</v>
+        <v>0.9385250210762024</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9822683334350586</v>
+        <v>0.980842113494873</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7958647012710571</v>
+        <v>0.9653092622756958</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3658490180969238</v>
+        <v>0.8120552897453308</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5405527949333191</v>
+        <v>0.9486746191978455</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8185004591941833</v>
+        <v>0.9933333992958069</v>
       </c>
     </row>
     <row r="118">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7410391569137573</v>
+        <v>0.9572716951370239</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5202771425247192</v>
+        <v>0.5948747992515564</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.7536135315895081</v>
+        <v>0.9981892704963684</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7183748483657837</v>
+        <v>0.9819223880767822</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7068561315536499</v>
+        <v>0.9981630444526672</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9382665753364563</v>
+        <v>0.9819223880767822</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9396287202835083</v>
+        <v>0.9981630444526672</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7027085423469543</v>
+        <v>0.9819223880767822</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8002530932426453</v>
+        <v>0.9999260902404785</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.78190016746521</v>
+        <v>0.7117247581481934</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6480218768119812</v>
+        <v>0.9981892704963684</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9255683422088623</v>
+        <v>0.6680818200111389</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5330176949501038</v>
+        <v>0.846445620059967</v>
       </c>
     </row>
     <row r="131">
@@ -4095,14 +4095,14 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.476899117231369</v>
+        <v>0.9998457431793213</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5537548065185547</v>
+        <v>0.530164897441864</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.525666356086731</v>
+        <v>0.9833362102508545</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.8837800621986389</v>
+        <v>0.9019246101379395</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8846608400344849</v>
+        <v>0.8534581065177917</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8085029125213623</v>
+        <v>0.9695060253143311</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3931438624858856</v>
+        <v>0.9914488196372986</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9396287202835083</v>
+        <v>0.9103657603263855</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4824675321578979</v>
+        <v>0.9967232346534729</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8026521801948547</v>
+        <v>0.992420494556427</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9516820311546326</v>
+        <v>0.9533553719520569</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5461583137512207</v>
+        <v>0.9981892704963684</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8355779647827148</v>
+        <v>0.6946911811828613</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8518474102020264</v>
+        <v>0.9978126287460327</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5919420123100281</v>
+        <v>0.6946911811828613</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7662844657897949</v>
+        <v>0.9969635605812073</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8573175668716431</v>
+        <v>0.9205673336982727</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4324937760829926</v>
+        <v>0.9257495403289795</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9396287202835083</v>
+        <v>0.9330835938453674</v>
       </c>
     </row>
     <row r="150">
@@ -4627,14 +4627,14 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4014557898044586</v>
+        <v>0.8211924433708191</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.942202091217041</v>
+        <v>0.9981892704963684</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9396287202835083</v>
+        <v>0.8378438949584961</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6386474967002869</v>
+        <v>0.9977966547012329</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7183748483657837</v>
+        <v>0.9871086478233337</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9219722747802734</v>
+        <v>0.9898967742919922</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.919510543346405</v>
+        <v>0.9835614562034607</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7663033008575439</v>
+        <v>0.986423671245575</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8740378618240356</v>
+        <v>0.9859347343444824</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9517815709114075</v>
+        <v>0.9928067922592163</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7620349526405334</v>
+        <v>0.8292610049247742</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.7298494577407837</v>
+        <v>0.9953945279121399</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7171149253845215</v>
+        <v>0.9697117805480957</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8762599229812622</v>
+        <v>0.8440775275230408</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.945565402507782</v>
+        <v>0.9753612279891968</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9227603077888489</v>
+        <v>0.9967484474182129</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6198236346244812</v>
+        <v>0.9617947936058044</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9788339734077454</v>
+        <v>0.9436079859733582</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8475972414016724</v>
+        <v>0.5108722448348999</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.6667072176933289</v>
+        <v>0.9981892704963684</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9700993299484253</v>
+        <v>0.9436079859733582</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.4944741129875183</v>
+        <v>0.8638649582862854</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9490563869476318</v>
+        <v>0.9981892704963684</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7192525863647461</v>
+        <v>0.9845126271247864</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9396287202835083</v>
+        <v>0.9935141801834106</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9441013932228088</v>
+        <v>0.9845126271247864</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9008333683013916</v>
+        <v>0.9845126271247864</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8852112293243408</v>
+        <v>0.9935141801834106</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.8735379576683044</v>
+        <v>0.9886102676391602</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.4254888594150543</v>
+        <v>0.9774783849716187</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.542361855506897</v>
+        <v>0.9881675839424133</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.8880558013916016</v>
+        <v>0.9753613471984863</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7417643666267395</v>
+        <v>0.9796661734580994</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.5657519102096558</v>
+        <v>0.971487283706665</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6645765900611877</v>
+        <v>0.9983810186386108</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.4800272583961487</v>
+        <v>0.9976361989974976</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.7417643666267395</v>
+        <v>0.9715554714202881</v>
       </c>
     </row>
     <row r="187">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8042595982551575</v>
+        <v>0.9368755221366882</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.574513852596283</v>
+        <v>0.9832401871681213</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.6958344578742981</v>
+        <v>0.9965168237686157</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4892328679561615</v>
+        <v>0.9992486834526062</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.3971580862998962</v>
+        <v>0.7354391813278198</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.7711220383644104</v>
+        <v>0.9951723217964172</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.4824675321578979</v>
+        <v>0.9128765463829041</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8767244219779968</v>
+        <v>0.9562603831291199</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.4532919526100159</v>
+        <v>0.894813597202301</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.6610895991325378</v>
+        <v>0.9986352324485779</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.7973528504371643</v>
+        <v>0.9988229870796204</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5364444255828857</v>
+        <v>0.9993374943733215</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.6666873097419739</v>
+        <v>0.8811579942703247</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.468911737203598</v>
+        <v>0.5597144365310669</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.7423975467681885</v>
+        <v>0.9988609552383423</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9016088247299194</v>
+        <v>0.6303141713142395</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.5958555936813354</v>
+        <v>0.7469407320022583</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.6367362141609192</v>
+        <v>0.9650355577468872</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9822254180908203</v>
+        <v>0.7889963388442993</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.5701010823249817</v>
+        <v>0.998954176902771</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7845883369445801</v>
+        <v>0.9631485939025879</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.5030661225318909</v>
+        <v>0.9568044543266296</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9396287202835083</v>
+        <v>0.6649304628372192</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4946067035198212</v>
+        <v>0.9851393103599548</v>
       </c>
     </row>
   </sheetData>
